--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utsumi/Desktop/秋田研究室/ETロボコン/github/model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E377A1-CBE4-6C47-B15A-7F146D107839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3FE848-D88D-4884-AE71-9AAD88A115BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -84,36 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガレージ、シーソー、ルックアップゲートのクリア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>競技者？</t>
-    <rPh sb="0" eb="3">
-      <t>キョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャリブレーションし、走行体がスタートエリアのラインより手前に停止状態で設置されている</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ソウコウタイ </t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">タイ </t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テマエ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>テイセィ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セッティ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゴールゲートの通過</t>
     <rPh sb="7" eb="9">
       <t>ツウカ</t>
@@ -128,20 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタートの指示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタートの動作</t>
-    <rPh sb="0" eb="2">
-      <t>スタートノ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>代替系列</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ダイタイ </t>
@@ -191,13 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガレージ停車、シーソー、ルックアップゲートのクリア</t>
-    <rPh sb="4" eb="6">
-      <t>テイセィア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>倒立振子制御ライブラリ？を初期化する</t>
     <rPh sb="0" eb="4">
       <t>トウリツフル</t>
@@ -333,6 +281,52 @@
     <t>ジェイロセンサの値を取得する</t>
     <rPh sb="10" eb="12">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーションし、走行体がスタートエリアの
+ラインより手前に停止状態で設置されている</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ソウコウタイ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">タイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>テイセィ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化
+スタートの指示
+スタートの動作</t>
+    <rPh sb="0" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースを完走する</t>
+    <rPh sb="4" eb="6">
+      <t>カンソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -341,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -366,21 +360,56 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -389,12 +418,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,214 +757,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A4B5F-104F-9F48-B441-AD3ED105465D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="2" max="2" width="12.53515625" customWidth="1"/>
+    <col min="3" max="3" width="58.23046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="52" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="2:3" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    <row r="10" spans="2:3" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
-  <dimension ref="C3:C21"/>
+  <dimension ref="C3:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.765625" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3FE848-D88D-4884-AE71-9AAD88A115BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B3F1A-D1E1-4D43-8CBE-76CB01369F78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース記述" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -327,6 +327,20 @@
     <t>コースを完走する</t>
     <rPh sb="4" eb="6">
       <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,18 +392,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -412,36 +432,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A4B5F-104F-9F48-B441-AD3ED105465D}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -769,72 +843,84 @@
     <col min="3" max="3" width="58.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="10"/>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="52" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:3" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:3" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+    <row r="11" spans="1:3" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -846,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
   <dimension ref="C3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>

--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B3F1A-D1E1-4D43-8CBE-76CB01369F78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EEDF0-8FFD-4562-9184-33380C7C454B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
@@ -21,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -76,20 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LコースかRコースをゴールまで走行</t>
-    <rPh sb="15" eb="17">
-      <t>ソウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴールゲートの通過</t>
-    <rPh sb="7" eb="9">
-      <t>ツウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期化</t>
     <rPh sb="0" eb="3">
       <t>ショキ</t>
@@ -97,55 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>代替系列</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ダイタイ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイレテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例外系列</t>
-    <rPh sb="0" eb="4">
-      <t>レイガイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動作途中において転倒、衝突等が起こった場合、動作を停止する</t>
-    <rPh sb="0" eb="4">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テントウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ショウトテゥ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコッタ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テイセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リモートスタート失敗の場合、タッチセンサによる走行の開始をする</t>
-    <rPh sb="23" eb="25">
-      <t>ソウコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>倒立振子制御ライブラリ？を初期化する</t>
     <rPh sb="0" eb="4">
       <t>トウリツフル</t>
@@ -285,45 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャリブレーションし、走行体がスタートエリアの
-ラインより手前に停止状態で設置されている</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ソウコウタイ </t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">タイ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テマエ</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>テイセィ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セッティ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期化
-スタートの指示
-スタートの動作</t>
-    <rPh sb="0" eb="3">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スターター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コースを完走する</t>
     <rPh sb="4" eb="6">
       <t>カンソウ</t>
@@ -341,6 +234,124 @@
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行体がゴールゲートを通過する。</t>
+    <rPh sb="0" eb="3">
+      <t>ソウコウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列はアクティビティ図に示す。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートの指示で走行体をスタートさせ、ゴールゲートを通過する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターがシステムを起動する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターがスタート指示を送る。</t>
+    <rPh sb="9" eb="11">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競技者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウギシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競技者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウギシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行準備を行う。</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムを起動後、走行準備を行う。</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行準備準備が完了している。</t>
+    <rPh sb="4" eb="6">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行準備が完了して、走行体がスタート位置で静止している。</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行準備が完了する。</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -409,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -474,13 +485,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,12 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -514,8 +567,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,97 +899,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A4B5F-104F-9F48-B441-AD3ED105465D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="12.53515625" customWidth="1"/>
-    <col min="3" max="3" width="58.23046875" customWidth="1"/>
+    <col min="2" max="2" width="12.61328125" customWidth="1"/>
+    <col min="3" max="3" width="39.61328125" customWidth="1"/>
+    <col min="4" max="4" width="45.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="8"/>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -949,87 +1036,87 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6EEDF0-8FFD-4562-9184-33380C7C454B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82600404-388D-46AA-8DD8-B48DD23C82E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース記述" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -64,159 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コースの完走</t>
-    <rPh sb="4" eb="6">
-      <t>カンソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期化</t>
-    <rPh sb="0" eb="3">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倒立振子制御ライブラリ？を初期化する</t>
-    <rPh sb="0" eb="4">
-      <t>トウリツフル</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モータリセットをする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジェイロセンサの各位置をリセットする</t>
-    <rPh sb="8" eb="11">
-      <t>カクイティ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタートの指示</t>
-    <rPh sb="5" eb="7">
-      <t>シジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リモートスタートする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タッチセンサにより走行をスタートする</t>
-    <rPh sb="9" eb="11">
-      <t>ソウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタート動作の開始</t>
-    <rPh sb="7" eb="9">
-      <t>カイセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尻尾モーター？を一定角度で固定する</t>
-    <rPh sb="0" eb="2">
-      <t>シッポ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>イッテ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラインに沿って倒立歩行する</t>
-    <rPh sb="4" eb="5">
-      <t>ラインニソッテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左右モーターを各位置を取得する</t>
-    <rPh sb="0" eb="2">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カクイティ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バッテリーの電圧を取得する</t>
-    <rPh sb="6" eb="8">
-      <t>デンアテゥ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトクスル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左右モーターの出力値を算出する</t>
-    <rPh sb="0" eb="1">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サンシュツスル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左右モーターを駆動する</t>
-    <rPh sb="0" eb="2">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クドウスル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倒立しているか確認する</t>
-    <rPh sb="0" eb="1">
-      <t>トウリテゥ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左右モーターを停止する</t>
-    <rPh sb="0" eb="2">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジェイロセンサの値を取得する</t>
-    <rPh sb="10" eb="12">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コースを完走する</t>
     <rPh sb="4" eb="6">
       <t>カンソウ</t>
@@ -352,6 +199,173 @@
     <t>走行準備が完了する。</t>
     <rPh sb="5" eb="7">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートスタートする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾を上げる</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行体情報を取得する</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の区間が終了しているか確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の区間が存在するか確認する</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の区間に切り替える</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回量を計算する</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右モータの出力値を計算する</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左モータを駆動する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右モータを駆動する</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾の角度を設定する</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ms待機する</t>
+    <rPh sb="3" eb="5">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割や情報</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品の候補</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,9 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -576,14 +587,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A4B5F-104F-9F48-B441-AD3ED105465D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -913,95 +927,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
@@ -1017,108 +1031,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
-  <dimension ref="C3:C20"/>
+  <dimension ref="C1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="3" max="3" width="33.765625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="29.3046875" customWidth="1"/>
     <col min="6" max="6" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C14" t="s">
+    <row r="1" spans="3:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="3:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82600404-388D-46AA-8DD8-B48DD23C82E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D850F4-E4E8-4C52-A570-F88988CB44E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース記述" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -64,13 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コースを完走する</t>
-    <rPh sb="4" eb="6">
-      <t>カンソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -366,6 +359,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースを完走する。</t>
+    <rPh sb="4" eb="6">
+      <t>カンソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -511,11 +511,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
       <bottom style="thick">
         <color theme="0"/>
       </bottom>
@@ -529,22 +531,7 @@
       <top style="thick">
         <color theme="0"/>
       </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -553,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,23 +568,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,17 +906,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A4B5F-104F-9F48-B441-AD3ED105465D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="12.61328125" customWidth="1"/>
-    <col min="3" max="3" width="39.61328125" customWidth="1"/>
-    <col min="4" max="4" width="45.23046875" customWidth="1"/>
+    <col min="3" max="3" width="32.23046875" customWidth="1"/>
+    <col min="4" max="4" width="32.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
@@ -934,33 +927,26 @@
     <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -968,10 +954,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -979,10 +962,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -990,39 +970,93 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+    <row r="12" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="13" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="41" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="41" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="20" spans="2:3" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+      <c r="C20" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1033,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
   <dimension ref="C1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1046,82 +1080,82 @@
   <sheetData>
     <row r="1" spans="3:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
     </row>

--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D850F4-E4E8-4C52-A570-F88988CB44E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3237FFF6-DEE0-45CA-BB9D-0602BC8A2A95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース記述" sheetId="1" r:id="rId1"/>
     <sheet name="部品候補リスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -366,6 +367,165 @@
     <t>コースを完走する。</t>
     <rPh sb="4" eb="6">
       <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全タスクを起動する</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーションを行う</t>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート位置で完全停止する</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左モータ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右モータ</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーション部、タッチセンサ</t>
+    <rPh sb="9" eb="10">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタータ、尻尾モータ</t>
+    <rPh sb="5" eb="7">
+      <t>シッポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタータ、bluetooth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動でスタートする</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタータ、タッチセンサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左モータ、右モータ、走行体情報、走行距離計、輝度偏差計測計、バッテリ、カラーセンサ、ジャイロセンサ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>キョリケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間トレーサ、区間パラメータリスト</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回量計算用PID計算機</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイサンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒立振子制御ライブラリ</t>
+    <rPh sb="0" eb="4">
+      <t>トウリツシンシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾モータ、尻尾制御</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -908,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A4B5F-104F-9F48-B441-AD3ED105465D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1065,16 +1225,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
-  <dimension ref="C1:D15"/>
+  <dimension ref="C1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="29.3046875" customWidth="1"/>
+    <col min="4" max="4" width="32.53515625" customWidth="1"/>
     <col min="6" max="6" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1089,77 +1249,129 @@
     </row>
     <row r="3" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="62.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="3:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3237FFF6-DEE0-45CA-BB9D-0602BC8A2A95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B77820-DCEA-43F5-AE7D-69D3F10AFDA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="部品候補リスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -197,20 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リモートスタートする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尻尾を上げる</t>
-    <rPh sb="0" eb="2">
-      <t>シッポ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>走行体情報を取得する</t>
     <rPh sb="0" eb="2">
       <t>ソウコウ</t>
@@ -337,13 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4ms待機する</t>
-    <rPh sb="3" eb="5">
-      <t>タイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>役割や情報</t>
     <rPh sb="0" eb="2">
       <t>ヤクワリ</t>
@@ -371,36 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全タスクを起動する</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャリブレーションを行う</t>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタート位置で完全停止する</t>
-    <rPh sb="4" eb="6">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左モータ</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
@@ -412,35 +360,6 @@
     <rPh sb="0" eb="1">
       <t>ミギ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャリブレーション部、タッチセンサ</t>
-    <rPh sb="9" eb="10">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタータ、尻尾モータ</t>
-    <rPh sb="5" eb="7">
-      <t>シッポ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタータ、bluetooth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手動でスタートする</t>
-    <rPh sb="0" eb="2">
-      <t>シュドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタータ、タッチセンサ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -700,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +670,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="41" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -1225,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
-  <dimension ref="C1:D19"/>
+  <dimension ref="C1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1238,140 +1160,99 @@
     <col min="6" max="6" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="3:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="3:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="3:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+    </row>
+    <row r="13" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="62.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C15" s="4" t="s">
+    <row r="14" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="3:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="3:6" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B77820-DCEA-43F5-AE7D-69D3F10AFDA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B6AE6-43AB-4D1C-AE17-12E5E509075A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -446,6 +446,42 @@
     <rPh sb="8" eb="10">
       <t>セイギョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +548,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD999FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -656,9 +698,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,8 +710,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,6 +722,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD999FD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,10 +1121,10 @@
     <row r="10" spans="1:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="13" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1085,7 +1132,7 @@
       <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1133,7 +1180,7 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1147,38 +1194,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
-  <dimension ref="C1:F15"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
+    <col min="1" max="1" width="11.07421875" customWidth="1"/>
+    <col min="2" max="2" width="3.07421875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="32.53515625" customWidth="1"/>
     <col min="6" max="6" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="12" t="s">
+    <row r="1" spans="2:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:4" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="4" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1186,7 +1240,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1194,7 +1251,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1202,57 +1262,62 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="3:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="9" spans="3:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C10" s="4" t="s">
+    <row r="7" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C11" s="1" t="s">
+    <row r="8" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C12" s="4" t="s">
+    <row r="9" spans="2:4" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C13" s="1" t="s">
+    <row r="10" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C14" s="4" t="s">
+    <row r="11" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+    <row r="12" spans="2:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ユースケース記述、部品候補リスト.xlsx
+++ b/ユースケース記述、部品候補リスト.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\†漆黒のたろう†\Documents\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B6AE6-43AB-4D1C-AE17-12E5E509075A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD325A2-E547-4402-B732-BCCAD2CD82A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="2" xr2:uid="{30B2FCB8-06D0-3E4A-AAC2-2031D2CDFB59}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース記述" sheetId="1" r:id="rId1"/>
     <sheet name="部品候補リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="タスク一覧" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>ユースケース</t>
     <phoneticPr fontId="1"/>
@@ -78,16 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>走行体がゴールゲートを通過する。</t>
-    <rPh sb="0" eb="3">
-      <t>ソウコウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トリガー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,21 +99,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタートの指示で走行体をスタートさせ、ゴールゲートを通過する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アクターがシステムを起動する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクターがスタート指示を送る。</t>
-    <rPh sb="9" eb="11">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -170,25 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>走行準備が完了して、走行体がスタート位置で静止している。</t>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウコウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>走行準備が完了する。</t>
     <rPh sb="5" eb="7">
       <t>カンリョウ</t>
@@ -342,13 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コースを完走する。</t>
-    <rPh sb="4" eb="6">
-      <t>カンソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左モータ</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
@@ -410,22 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>旋回量計算用PID計算機</t>
-    <rPh sb="0" eb="2">
-      <t>センカイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ケイサンヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケイサンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>倒立振子制御ライブラリ</t>
     <rPh sb="0" eb="4">
       <t>トウリツシンシ</t>
@@ -483,13 +418,217 @@
   <si>
     <t>i</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID計算</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースを完走する</t>
+    <rPh sb="4" eb="6">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒立状態でコースをライントレースし、ゴールゲートを通過する</t>
+    <rPh sb="0" eb="2">
+      <t>トウリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行体がゴールゲートを通過する</t>
+    <rPh sb="0" eb="3">
+      <t>ソウコウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列はアクティビティ図に示す</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行準備が完了している</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート動作が終了した</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作内容</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行周期</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競技タスク</t>
+    <rPh sb="0" eb="2">
+      <t>キョウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計器管理タスク</t>
+    <rPh sb="0" eb="2">
+      <t>ケイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾制御タスク</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート信号の受信や、ログデータの送信を行う</t>
+    <rPh sb="4" eb="6">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾の角度を指定した角度に保つ</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスの情報を取得し、管理する</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリーポイントとなり、他のタスクを起動する</t>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信タスク</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,13 +656,29 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +709,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -661,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,22 +856,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102A4B5F-104F-9F48-B441-AD3ED105465D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1049,33 +1228,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -1083,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -1091,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -1099,15 +1278,15 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -1115,80 +1294,80 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="13" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="41" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
+      <c r="C15" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="41" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
+      <c r="C17" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
+      <c r="C19" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="23" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
+      <c r="C20" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1196,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F3FC4-7340-B143-AD13-2134585CBB50}">
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1211,116 +1390,196 @@
   <sheetData>
     <row r="1" spans="2:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="58" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="17" t="s">
+    </row>
+    <row r="4" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="61" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="16" t="s">
+    <row r="5" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="16" t="s">
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="16" t="s">
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="12" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB7ED52-2648-49A3-A141-D0843E4FEA56}">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="2" max="2" width="14.4609375" customWidth="1"/>
+    <col min="3" max="3" width="43.23046875" customWidth="1"/>
+    <col min="4" max="4" width="8.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>